--- a/automation/parameter_template.xlsx
+++ b/automation/parameter_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMIANHUANG\workspace\download-report\dlr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIMIANHUANG\workspace\download-report\megabot\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5">
         <v>42728</v>
